--- a/docs/timesheet_Arno_VanDenBossche.xlsx
+++ b/docs/timesheet_Arno_VanDenBossche.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31100" yWindow="160" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="45640" yWindow="-2160" windowWidth="16760" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>uur</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>vervangen share images naar share icons / header template part / consumer score</t>
+  </si>
+  <si>
+    <t>Door een db te importeren is de volledige wordpress database corrupt geworden en omdat we geen backup hadden moesten we alles weer terug toevoegen zoals de headers, pages, comments, articles, roles etc + finishing touches</t>
+  </si>
+  <si>
+    <t>Alles doornomen, kleine aanpassingen, alle repos in orde gebracht, timesheets aangevuld en dossier in orde gebracht.</t>
+  </si>
+  <si>
+    <t>Samengewerkt met Bjorn, GitHub, GitLab en Pantheon in orde gebracht, Wordpress van content voorzien, kleine aanpassingen samen doornomen</t>
   </si>
 </sst>
 </file>
@@ -112,10 +121,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -396,17 +415,18 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="114.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="6"/>
+    <col min="3" max="3" width="178.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -415,196 +435,229 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>42880</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>42883</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>42879</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>42882</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>42878</v>
-      </c>
-      <c r="B4" s="1">
+        <v>42881</v>
+      </c>
+      <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>42877</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7</v>
+        <v>42880</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>42876</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>42879</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>42875</v>
+        <v>42878</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>42874</v>
+        <v>42877</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>42873</v>
-      </c>
+        <v>42876</v>
+      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>42872</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>42871</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+        <v>42874</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>42870</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>42869</v>
+        <v>42872</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>42868</v>
-      </c>
+        <v>42871</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>42867</v>
+        <v>42870</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>42866</v>
+        <v>42869</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>42865</v>
+        <v>42868</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>42864</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>42863</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>42862</v>
+        <v>42865</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>42861</v>
-      </c>
-      <c r="B21" s="1">
+        <v>42864</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>42860</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
+        <v>42863</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>42859</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>42862</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>42858</v>
+        <v>42861</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
+        <v>42860</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>42859</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
         <v>42857</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -612,9 +665,9 @@
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
-        <f>SUM(B2:B25)</f>
-        <v>45.5</v>
+      <c r="B32" s="6">
+        <f>SUM(B2:B28)</f>
+        <v>62.5</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>0</v>
